--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-project.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FD4021-9374-42EE-8230-C07722B02270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49772D96-E3B0-4528-B30F-B1AAE1A50FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -2834,21 +2834,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2879,6 +2864,21 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3247,11 +3247,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3260,21 +3260,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3385,11 +3385,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3427,19 +3427,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="52"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3464,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDCD66-3F4B-4249-A4C7-C8D31AF2CAC4}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="B84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4345,487 +4345,487 @@
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="57" t="s">
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="G63" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="H63" s="57" t="s">
+      <c r="H63" s="52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F64" s="57" t="s">
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="59" t="s">
+      <c r="G64" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="H64" s="57" t="s">
+      <c r="H64" s="52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="60" t="s">
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="59" t="s">
+      <c r="G65" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="H65" s="57" t="s">
+      <c r="H65" s="52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="E66" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="62" t="s">
+      <c r="E66" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G66" s="63" t="s">
+      <c r="G66" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="62" t="s">
+      <c r="H66" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="E67" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="62" t="s">
+      <c r="E67" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="63" t="s">
+      <c r="G67" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H67" s="62" t="s">
+      <c r="H67" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="E68" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="62" t="s">
+      <c r="E68" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="63" t="s">
+      <c r="G68" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H68" s="62" t="s">
+      <c r="H68" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="E69" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" s="62" t="s">
+      <c r="E69" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="63" t="s">
+      <c r="G69" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H69" s="62" t="s">
+      <c r="H69" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="E70" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="62" t="s">
+      <c r="E70" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="63" t="s">
+      <c r="G70" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H70" s="62" t="s">
+      <c r="H70" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="E71" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="62" t="s">
+      <c r="E71" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="63" t="s">
+      <c r="G71" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="H71" s="62" t="s">
+      <c r="H71" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="E72" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F72" s="62" t="s">
+      <c r="E72" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G72" s="63" t="s">
+      <c r="G72" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="H72" s="62" t="s">
+      <c r="H72" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="E73" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="62" t="s">
+      <c r="E73" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="63" t="s">
+      <c r="G73" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="H73" s="62" t="s">
+      <c r="H73" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="E74" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F74" s="62" t="s">
+      <c r="E74" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="H74" s="62" t="s">
+      <c r="H74" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="E75" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F75" s="62" t="s">
+      <c r="E75" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="63" t="s">
+      <c r="G75" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="H75" s="62" t="s">
+      <c r="H75" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="E76" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="62" t="s">
+      <c r="E76" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G76" s="63" t="s">
+      <c r="G76" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="H76" s="62" t="s">
+      <c r="H76" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="E77" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F77" s="62" t="s">
+      <c r="E77" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="H77" s="62" t="s">
+      <c r="H77" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="E78" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" s="62" t="s">
+      <c r="E78" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G78" s="63" t="s">
+      <c r="G78" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H78" s="62" t="s">
+      <c r="H78" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="E79" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F79" s="62" t="s">
+      <c r="E79" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="63" t="s">
+      <c r="G79" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H79" s="62" t="s">
+      <c r="H79" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="E80" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F80" s="64" t="s">
+      <c r="E80" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G80" s="63" t="s">
+      <c r="G80" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="H80" s="62" t="s">
+      <c r="H80" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="5:8">
-      <c r="E81" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F81" s="64" t="s">
+      <c r="E81" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G81" s="63" t="s">
+      <c r="G81" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H81" s="62" t="s">
+      <c r="H81" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="5:8">
-      <c r="E82" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" s="64" t="s">
+      <c r="E82" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G82" s="63" t="s">
+      <c r="G82" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H82" s="62" t="s">
+      <c r="H82" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="83" spans="5:8">
-      <c r="E83" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F83" s="64" t="s">
+      <c r="E83" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="63" t="s">
+      <c r="G83" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H83" s="62" t="s">
+      <c r="H83" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="5:8">
-      <c r="E84" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F84" s="64" t="s">
+      <c r="E84" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G84" s="63" t="s">
+      <c r="G84" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H84" s="62" t="s">
+      <c r="H84" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="85" spans="5:8">
-      <c r="E85" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F85" s="64" t="s">
+      <c r="E85" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G85" s="63" t="s">
+      <c r="G85" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="H85" s="62" t="s">
+      <c r="H85" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="86" spans="5:8">
-      <c r="E86" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F86" s="64" t="s">
+      <c r="E86" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G86" s="63" t="s">
+      <c r="G86" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="H86" s="62" t="s">
+      <c r="H86" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="5:8">
-      <c r="E87" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F87" s="64" t="s">
+      <c r="E87" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G87" s="63" t="s">
+      <c r="G87" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="H87" s="62" t="s">
+      <c r="H87" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="5:8">
-      <c r="E88" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F88" s="64" t="s">
+      <c r="E88" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G88" s="63" t="s">
+      <c r="G88" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="H88" s="62" t="s">
+      <c r="H88" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="5:8">
-      <c r="E89" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F89" s="64" t="s">
+      <c r="E89" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G89" s="63" t="s">
+      <c r="G89" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="H89" s="62" t="s">
+      <c r="H89" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="90" spans="5:8">
-      <c r="E90" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="64" t="s">
+      <c r="E90" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G90" s="63" t="s">
+      <c r="G90" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="H90" s="62" t="s">
+      <c r="H90" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="91" spans="5:8">
-      <c r="E91" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F91" s="64" t="s">
+      <c r="E91" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F91" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G91" s="63" t="s">
+      <c r="G91" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="H91" s="62" t="s">
+      <c r="H91" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="92" spans="5:8">
-      <c r="E92" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" s="64" t="s">
+      <c r="E92" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G92" s="63" t="s">
+      <c r="G92" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H92" s="62" t="s">
+      <c r="H92" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="93" spans="5:8">
-      <c r="E93" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F93" s="64" t="s">
+      <c r="E93" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G93" s="63" t="s">
+      <c r="G93" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H93" s="62" t="s">
+      <c r="H93" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="94" spans="5:8">
-      <c r="E94" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F94" s="66" t="s">
+      <c r="E94" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="G94" s="67" t="s">
+      <c r="G94" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H94" s="66" t="s">
+      <c r="H94" s="61" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="95" spans="5:8">
-      <c r="E95" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F95" s="68" t="s">
+      <c r="E95" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F95" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G95" s="67" t="s">
+      <c r="G95" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H95" s="66" t="s">
+      <c r="H95" s="61" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="96" spans="5:8">
-      <c r="E96" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F96" s="68" t="s">
+      <c r="E96" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="G96" s="67" t="s">
+      <c r="G96" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H96" s="66" t="s">
+      <c r="H96" s="61" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       <c r="F97" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G97" s="69" t="s">
+      <c r="G97" s="64" t="s">
         <v>123</v>
       </c>
       <c r="H97" s="48" t="s">
@@ -4850,7 +4850,7 @@
       <c r="F98" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G98" s="69" t="s">
+      <c r="G98" s="64" t="s">
         <v>124</v>
       </c>
       <c r="H98" s="48" t="s">
@@ -4864,7 +4864,7 @@
       <c r="F99" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G99" s="69" t="s">
+      <c r="G99" s="64" t="s">
         <v>125</v>
       </c>
       <c r="H99" s="48" t="s">
@@ -4878,7 +4878,7 @@
       <c r="F100" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G100" s="69" t="s">
+      <c r="G100" s="64" t="s">
         <v>126</v>
       </c>
       <c r="H100" s="48" t="s">
@@ -4892,7 +4892,7 @@
       <c r="F101" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="64" t="s">
         <v>127</v>
       </c>
       <c r="H101" s="48" t="s">
@@ -4903,10 +4903,10 @@
       <c r="E102" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F102" s="70" t="s">
+      <c r="F102" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="G102" s="69" t="s">
+      <c r="G102" s="64" t="s">
         <v>123</v>
       </c>
       <c r="H102" s="48" t="s">
@@ -4917,10 +4917,10 @@
       <c r="E103" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F103" s="70" t="s">
+      <c r="F103" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="64" t="s">
         <v>124</v>
       </c>
       <c r="H103" s="48" t="s">
@@ -4931,11 +4931,11 @@
       <c r="E104" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F104" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G104" s="69" t="s">
-        <v>123</v>
+      <c r="F104" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="G104" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="H104" s="48" t="s">
         <v>86</v>
@@ -4948,8 +4948,8 @@
       <c r="F105" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G105" s="69" t="s">
-        <v>125</v>
+      <c r="G105" s="64" t="s">
+        <v>123</v>
       </c>
       <c r="H105" s="48" t="s">
         <v>86</v>
@@ -4962,8 +4962,8 @@
       <c r="F106" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G106" s="69" t="s">
-        <v>126</v>
+      <c r="G106" s="64" t="s">
+        <v>125</v>
       </c>
       <c r="H106" s="48" t="s">
         <v>86</v>
@@ -4976,155 +4976,166 @@
       <c r="F107" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G107" s="69" t="s">
+      <c r="G107" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="H107" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8">
+      <c r="E108" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G108" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="H107" s="48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="5:8">
-      <c r="E108" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F108" s="72" t="s">
+      <c r="H108" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8">
+      <c r="E109" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F109" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G108" s="73" t="s">
+      <c r="G109" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="H108" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8">
-      <c r="E109" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F109" s="72" t="s">
+      <c r="H109" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8">
+      <c r="E110" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G109" s="73" t="s">
+      <c r="G110" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="H109" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8">
-      <c r="E110" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F110" s="72" t="s">
+      <c r="H110" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8">
+      <c r="E111" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G110" s="73" t="s">
+      <c r="G111" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="H110" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="5:8">
-      <c r="E111" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F111" s="72" t="s">
+      <c r="H111" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8">
+      <c r="E112" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G111" s="73" t="s">
+      <c r="G112" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="H111" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="5:8">
-      <c r="E112" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F112" s="72" t="s">
+      <c r="H112" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8">
+      <c r="E113" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G112" s="73" t="s">
+      <c r="G113" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="H112" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8">
-      <c r="E113" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="74" t="s">
+      <c r="H113" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G113" s="73" t="s">
+      <c r="G114" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="H113" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8">
-      <c r="E114" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F114" s="74" t="s">
+      <c r="H114" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G114" s="73" t="s">
+      <c r="G115" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="H114" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="5:8">
-      <c r="E115" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F115" s="74" t="s">
+      <c r="H115" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8">
+      <c r="E116" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F116" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G115" s="73" t="s">
+      <c r="G116" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="H115" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8">
-      <c r="E116" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F116" s="74" t="s">
+      <c r="H116" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8">
+      <c r="E117" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G116" s="73" t="s">
+      <c r="G117" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="H116" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8">
-      <c r="E117" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F117" s="74" t="s">
+      <c r="H117" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8">
+      <c r="E118" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F118" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G117" s="73" t="s">
+      <c r="G118" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="H117" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8">
-      <c r="E118" s="44"/>
+      <c r="H118" s="67" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" s="44"/>
@@ -5134,6 +5145,9 @@
     </row>
     <row r="121" spans="5:8">
       <c r="E121" s="44"/>
+    </row>
+    <row r="122" spans="5:8">
+      <c r="E122" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-project.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49772D96-E3B0-4528-B30F-B1AAE1A50FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E1DD1-EA76-49CE-AEE2-74FE1D4D780C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="132">
   <si>
     <r>
       <rPr>
@@ -2079,9 +2079,6 @@
   </si>
   <si>
     <t>#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>$DEL</t>
   </si>
   <si>
     <t>*</t>
@@ -3466,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDCD66-3F4B-4249-A4C7-C8D31AF2CAC4}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3539,8 +3536,8 @@
     </row>
     <row r="8" spans="1:10">
       <c r="D8" s="36"/>
-      <c r="E8" s="37" t="s">
-        <v>59</v>
+      <c r="E8" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>59</v>
@@ -3560,8 +3557,8 @@
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="36"/>
-      <c r="E9" s="38" t="s">
-        <v>61</v>
+      <c r="E9" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>61</v>
@@ -3581,8 +3578,8 @@
     </row>
     <row r="10" spans="1:10">
       <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
-        <v>63</v>
+      <c r="E10" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>63</v>
@@ -3602,8 +3599,8 @@
     </row>
     <row r="11" spans="1:10">
       <c r="D11" s="36"/>
-      <c r="E11" s="36" t="s">
-        <v>65</v>
+      <c r="E11" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>65</v>
@@ -3623,8 +3620,8 @@
     </row>
     <row r="12" spans="1:10">
       <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
-        <v>67</v>
+      <c r="E12" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>67</v>
@@ -3668,680 +3665,678 @@
       <c r="H14" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="43" t="s">
-        <v>74</v>
-      </c>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:10">
       <c r="E15" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="47" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>77</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.25">
       <c r="E16" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="47" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="47" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="47" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="46" t="s">
         <v>77</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="5:8" ht="20.25">
       <c r="E20" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="47" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>63</v>
       </c>
       <c r="G22" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="46" t="s">
         <v>77</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="5:8" ht="20.25">
       <c r="E23" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="50" t="s">
         <v>61</v>
       </c>
       <c r="G26" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>77</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="5:8">
       <c r="E29" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="5:8">
       <c r="E30" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="5:8">
       <c r="E31" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="5:8">
       <c r="E35" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="5:8">
       <c r="E43" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="E49" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="E50" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F50" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="E51" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G51" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="E52" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G52" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="E53" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="E54" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="E55" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F55" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="E56" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F56" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="E57" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F57" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="E58" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G58" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="E59" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F59" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G59" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="E60" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="E61" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="E62" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G62" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -4349,16 +4344,16 @@
       <c r="C63" s="52"/>
       <c r="D63" s="52"/>
       <c r="E63" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" s="52" t="s">
         <v>59</v>
       </c>
       <c r="G63" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -4366,16 +4361,16 @@
       <c r="C64" s="52"/>
       <c r="D64" s="52"/>
       <c r="E64" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" s="52" t="s">
         <v>63</v>
       </c>
       <c r="G64" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -4383,758 +4378,758 @@
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
       <c r="E65" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" s="55" t="s">
         <v>61</v>
       </c>
       <c r="G65" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G66" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H66" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="E67" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F67" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G67" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H67" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="E68" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F68" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G68" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H68" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="E69" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F69" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G69" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H69" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="E70" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F70" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G70" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H70" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="E71" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G71" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H71" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="E72" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F72" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G72" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H72" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="E73" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F73" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G73" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H73" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="E74" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F74" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G74" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H74" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="E75" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F75" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G75" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H75" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="2:8">
       <c r="E76" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F76" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G76" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H76" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="E77" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F77" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G77" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H77" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="E78" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F78" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G78" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H78" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="E79" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F79" s="57" t="s">
         <v>59</v>
       </c>
       <c r="G79" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H79" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="E80" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F80" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G80" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H80" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="5:8">
       <c r="E81" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F81" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G81" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H81" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="5:8">
       <c r="E82" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F82" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G82" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H82" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="5:8">
       <c r="E83" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F83" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G83" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H83" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="5:8">
       <c r="E84" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F84" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G84" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H84" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="5:8">
       <c r="E85" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F85" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G85" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H85" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="5:8">
       <c r="E86" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F86" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G86" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H86" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="5:8">
       <c r="E87" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F87" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G87" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H87" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="5:8">
       <c r="E88" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F88" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G88" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H88" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="5:8">
       <c r="E89" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F89" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G89" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H89" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="5:8">
       <c r="E90" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F90" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G90" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H90" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="5:8">
       <c r="E91" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F91" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G91" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H91" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="5:8">
       <c r="E92" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F92" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G92" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H92" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="5:8">
       <c r="E93" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F93" s="59" t="s">
         <v>61</v>
       </c>
       <c r="G93" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H93" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="5:8">
       <c r="E94" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F94" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G94" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H94" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="5:8">
       <c r="E95" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F95" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G95" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H95" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="5:8">
       <c r="E96" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F96" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G96" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H96" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="5:8">
       <c r="E97" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F97" s="48" t="s">
         <v>59</v>
       </c>
       <c r="G97" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H97" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="5:8">
       <c r="E98" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F98" s="48" t="s">
         <v>59</v>
       </c>
       <c r="G98" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H98" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="5:8">
       <c r="E99" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F99" s="48" t="s">
         <v>59</v>
       </c>
       <c r="G99" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="5:8">
       <c r="E100" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F100" s="48" t="s">
         <v>59</v>
       </c>
       <c r="G100" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="5:8">
       <c r="E101" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F101" s="48" t="s">
         <v>59</v>
       </c>
       <c r="G101" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="5:8">
       <c r="E102" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F102" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G102" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H102" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="5:8">
       <c r="E103" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F103" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G103" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H103" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="5:8">
       <c r="E104" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F104" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G104" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H104" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="5:8">
       <c r="E105" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F105" s="50" t="s">
         <v>61</v>
       </c>
       <c r="G105" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H105" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="5:8">
       <c r="E106" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F106" s="50" t="s">
         <v>61</v>
       </c>
       <c r="G106" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H106" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="5:8">
       <c r="E107" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F107" s="50" t="s">
         <v>61</v>
       </c>
       <c r="G107" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H107" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="5:8">
       <c r="E108" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F108" s="50" t="s">
         <v>61</v>
       </c>
       <c r="G108" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H108" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="5:8">
       <c r="E109" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F109" s="67" t="s">
         <v>59</v>
       </c>
       <c r="G109" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H109" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="5:8">
       <c r="E110" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F110" s="67" t="s">
         <v>59</v>
       </c>
       <c r="G110" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H110" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F111" s="67" t="s">
         <v>59</v>
       </c>
       <c r="G111" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H111" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="5:8">
       <c r="E112" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F112" s="67" t="s">
         <v>59</v>
       </c>
       <c r="G112" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H112" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F113" s="67" t="s">
         <v>59</v>
       </c>
       <c r="G113" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H113" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="5:8">
       <c r="E114" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F114" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G114" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H114" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F115" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G115" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H115" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G116" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H116" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="E117" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F117" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G117" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H117" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F118" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G118" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H118" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="5:8">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-project.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E1DD1-EA76-49CE-AEE2-74FE1D4D780C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD0D49C-E4A1-4E10-8046-CFB2E4CCF071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="135">
   <si>
     <r>
       <rPr>
@@ -2272,6 +2272,15 @@
   </si>
   <si>
     <t>choerodon.code.project.setting.test</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +2979,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3461,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDCD66-3F4B-4249-A4C7-C8D31AF2CAC4}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3728,24 +3737,24 @@
         <v>74</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>76</v>
+        <v>59</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="5:8" ht="20.25">
+    <row r="20" spans="5:8">
       <c r="E20" s="46" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>133</v>
       </c>
       <c r="H20" s="46" t="s">
         <v>77</v>
@@ -3756,10 +3765,10 @@
         <v>74</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>77</v>
@@ -3770,7 +3779,7 @@
         <v>74</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G22" s="48" t="s">
         <v>76</v>
@@ -3784,7 +3793,7 @@
         <v>74</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>93</v>
@@ -3798,7 +3807,7 @@
         <v>74</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G24" s="48" t="s">
         <v>94</v>
@@ -3812,10 +3821,10 @@
         <v>74</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>77</v>
@@ -3825,182 +3834,182 @@
       <c r="E26" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>76</v>
+      <c r="F26" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>133</v>
       </c>
       <c r="H26" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>75</v>
+      <c r="E27" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="5:8">
-      <c r="E28" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="E29" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>75</v>
+      <c r="E28" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" ht="20.25">
+      <c r="E29" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="5:8">
-      <c r="E30" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>75</v>
+      <c r="E30" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="5:8">
-      <c r="E31" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>75</v>
+      <c r="E31" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="5:8">
-      <c r="E32" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>75</v>
+      <c r="E32" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>75</v>
+      <c r="E33" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>75</v>
+      <c r="E34" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="5:8">
-      <c r="E35" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>75</v>
+      <c r="E35" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>75</v>
+      <c r="E36" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>75</v>
+      <c r="E37" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>75</v>
+      <c r="E38" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="5:8">
@@ -4011,7 +4020,7 @@
         <v>59</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H39" s="44" t="s">
         <v>75</v>
@@ -4025,7 +4034,7 @@
         <v>59</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H40" s="44" t="s">
         <v>75</v>
@@ -4036,13 +4045,13 @@
         <v>74</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="5:8">
@@ -4050,13 +4059,13 @@
         <v>74</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="5:8">
@@ -4064,13 +4073,13 @@
         <v>74</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="5:8">
@@ -4078,13 +4087,13 @@
         <v>74</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="5:8">
@@ -4092,13 +4101,13 @@
         <v>74</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="5:8">
@@ -4106,13 +4115,13 @@
         <v>74</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="5:8">
@@ -4120,13 +4129,13 @@
         <v>74</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="5:8">
@@ -4134,72 +4143,72 @@
         <v>74</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
+        <v>98</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
       <c r="E49" s="44" t="s">
         <v>74</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+        <v>99</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
       <c r="E50" s="44" t="s">
         <v>74</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+        <v>100</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
       <c r="E51" s="44" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G51" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
+        <v>101</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
       <c r="E52" s="44" t="s">
         <v>74</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G52" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
+        <v>102</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8">
       <c r="E53" s="44" t="s">
         <v>74</v>
       </c>
@@ -4207,13 +4216,13 @@
         <v>63</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="5:8">
       <c r="E54" s="44" t="s">
         <v>74</v>
       </c>
@@ -4221,340 +4230,340 @@
         <v>63</v>
       </c>
       <c r="G54" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8">
+      <c r="E55" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8">
+      <c r="E56" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8">
+      <c r="E57" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8">
+      <c r="E58" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8">
+      <c r="E59" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8">
+      <c r="E60" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8">
+      <c r="E61" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8">
+      <c r="E62" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8">
+      <c r="E63" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8">
+      <c r="E64" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="E65" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="E66" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="H54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="E55" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="51" t="s">
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="E67" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="45" t="s">
+      <c r="G67" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="H55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="E56" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="51" t="s">
+      <c r="H67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="E68" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="G68" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="E57" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="51" t="s">
+      <c r="H68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="E69" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G57" s="45" t="s">
+      <c r="G69" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="H57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="E58" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="51" t="s">
+      <c r="H69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="E70" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G58" s="45" t="s">
+      <c r="G70" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="H58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="E59" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="51" t="s">
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="E71" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G71" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="H59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="E60" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="51" t="s">
+      <c r="H71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="E72" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="G72" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="E61" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="51" t="s">
+      <c r="H72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="E73" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G61" s="45" t="s">
+      <c r="G73" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="E62" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="51" t="s">
+      <c r="H73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="E74" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G74" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="H62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="52" t="s">
+      <c r="H74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="54" t="s">
+      <c r="G75" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="H63" s="52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="52" t="s">
+      <c r="H75" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="54" t="s">
+      <c r="G76" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="H64" s="52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="55" t="s">
+      <c r="H76" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G77" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="H65" s="52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="E66" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G66" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="E67" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G67" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="E68" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G68" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H68" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="E69" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F69" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="H69" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="E70" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H70" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="E71" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G71" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="H71" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="E72" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G72" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H72" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="E73" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G73" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="H73" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="E74" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G74" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H74" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="E75" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G75" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="H75" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="E76" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G76" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="H76" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="E77" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G77" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="57" t="s">
+      <c r="H77" s="52" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4566,7 +4575,7 @@
         <v>59</v>
       </c>
       <c r="G78" s="58" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H78" s="57" t="s">
         <v>85</v>
@@ -4580,7 +4589,7 @@
         <v>59</v>
       </c>
       <c r="G79" s="58" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H79" s="57" t="s">
         <v>85</v>
@@ -4590,11 +4599,11 @@
       <c r="E80" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F80" s="59" t="s">
-        <v>61</v>
+      <c r="F80" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G80" s="58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H80" s="57" t="s">
         <v>85</v>
@@ -4604,11 +4613,11 @@
       <c r="E81" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F81" s="59" t="s">
-        <v>61</v>
+      <c r="F81" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G81" s="58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H81" s="57" t="s">
         <v>85</v>
@@ -4618,11 +4627,11 @@
       <c r="E82" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F82" s="59" t="s">
-        <v>61</v>
+      <c r="F82" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G82" s="58" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H82" s="57" t="s">
         <v>85</v>
@@ -4632,11 +4641,11 @@
       <c r="E83" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F83" s="59" t="s">
-        <v>61</v>
+      <c r="F83" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G83" s="58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H83" s="57" t="s">
         <v>85</v>
@@ -4646,11 +4655,11 @@
       <c r="E84" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F84" s="59" t="s">
-        <v>61</v>
+      <c r="F84" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G84" s="58" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H84" s="57" t="s">
         <v>85</v>
@@ -4660,11 +4669,11 @@
       <c r="E85" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F85" s="59" t="s">
-        <v>61</v>
+      <c r="F85" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G85" s="58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H85" s="57" t="s">
         <v>85</v>
@@ -4674,11 +4683,11 @@
       <c r="E86" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F86" s="59" t="s">
-        <v>61</v>
+      <c r="F86" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G86" s="58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H86" s="57" t="s">
         <v>85</v>
@@ -4688,11 +4697,11 @@
       <c r="E87" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F87" s="59" t="s">
-        <v>61</v>
+      <c r="F87" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G87" s="58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H87" s="57" t="s">
         <v>85</v>
@@ -4702,11 +4711,11 @@
       <c r="E88" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F88" s="59" t="s">
-        <v>61</v>
+      <c r="F88" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G88" s="58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H88" s="57" t="s">
         <v>85</v>
@@ -4716,11 +4725,11 @@
       <c r="E89" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F89" s="59" t="s">
-        <v>61</v>
+      <c r="F89" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G89" s="58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H89" s="57" t="s">
         <v>85</v>
@@ -4730,11 +4739,11 @@
       <c r="E90" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F90" s="59" t="s">
-        <v>61</v>
+      <c r="F90" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G90" s="58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H90" s="57" t="s">
         <v>85</v>
@@ -4744,11 +4753,11 @@
       <c r="E91" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F91" s="59" t="s">
-        <v>61</v>
+      <c r="F91" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="G91" s="58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H91" s="57" t="s">
         <v>85</v>
@@ -4762,7 +4771,7 @@
         <v>61</v>
       </c>
       <c r="G92" s="58" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H92" s="57" t="s">
         <v>85</v>
@@ -4776,373 +4785,541 @@
         <v>61</v>
       </c>
       <c r="G93" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8">
+      <c r="E94" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G94" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H94" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8">
+      <c r="E95" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G95" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="H95" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8">
+      <c r="E96" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G96" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="H96" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
+      <c r="E97" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8">
+      <c r="E98" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G98" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H98" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
+      <c r="E99" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F99" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H99" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
+      <c r="E100" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H100" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8">
+      <c r="E101" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F101" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G101" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H101" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
+      <c r="E102" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F102" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G102" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H102" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8">
+      <c r="E103" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
+      <c r="E104" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H104" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8">
+      <c r="E105" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H93" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="5:8">
-      <c r="E94" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F94" s="61" t="s">
+      <c r="H105" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8">
+      <c r="E106" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F106" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="G94" s="62" t="s">
+      <c r="G106" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H94" s="61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="5:8">
-      <c r="E95" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F95" s="63" t="s">
+      <c r="H106" s="61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8">
+      <c r="E107" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="G95" s="62" t="s">
+      <c r="G107" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H95" s="61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="5:8">
-      <c r="E96" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F96" s="63" t="s">
+      <c r="H107" s="61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8">
+      <c r="E108" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F108" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G96" s="62" t="s">
+      <c r="G108" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8">
-      <c r="E97" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F97" s="48" t="s">
+      <c r="H108" s="61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8">
+      <c r="E109" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G97" s="64" t="s">
+      <c r="G109" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="H97" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="5:8">
-      <c r="E98" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" s="48" t="s">
+      <c r="H109" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8">
+      <c r="E110" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F110" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G98" s="64" t="s">
+      <c r="G110" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="H98" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
-      <c r="E99" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F99" s="48" t="s">
+      <c r="H110" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8">
+      <c r="E111" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G99" s="64" t="s">
+      <c r="G111" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H99" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8">
-      <c r="E100" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F100" s="48" t="s">
+      <c r="H111" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8">
+      <c r="E112" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G100" s="64" t="s">
+      <c r="G112" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="H100" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8">
-      <c r="E101" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F101" s="48" t="s">
+      <c r="H112" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8">
+      <c r="E113" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G101" s="64" t="s">
+      <c r="G113" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H101" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8">
-      <c r="E102" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F102" s="65" t="s">
+      <c r="H113" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="G102" s="64" t="s">
+      <c r="G114" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="H102" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8">
-      <c r="E103" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F103" s="65" t="s">
+      <c r="H114" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="G103" s="64" t="s">
+      <c r="G115" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="H103" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8">
-      <c r="E104" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F104" s="65" t="s">
+      <c r="H115" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8">
+      <c r="E116" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="G104" s="64" t="s">
+      <c r="G116" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H104" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="5:8">
-      <c r="E105" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F105" s="50" t="s">
+      <c r="H116" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8">
+      <c r="E117" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F117" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G105" s="64" t="s">
+      <c r="G117" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="H105" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="5:8">
-      <c r="E106" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="50" t="s">
+      <c r="H117" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8">
+      <c r="E118" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G106" s="64" t="s">
+      <c r="G118" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H106" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="107" spans="5:8">
-      <c r="E107" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F107" s="50" t="s">
+      <c r="H118" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8">
+      <c r="E119" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G107" s="64" t="s">
+      <c r="G119" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="H107" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="5:8">
-      <c r="E108" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F108" s="50" t="s">
+      <c r="H119" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="5:8">
+      <c r="E120" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F120" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G108" s="64" t="s">
+      <c r="G120" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H108" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8">
-      <c r="E109" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F109" s="67" t="s">
+      <c r="H120" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="5:8">
+      <c r="E121" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F121" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G109" s="68" t="s">
+      <c r="G121" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="H109" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8">
-      <c r="E110" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F110" s="67" t="s">
+      <c r="H121" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8">
+      <c r="E122" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G110" s="68" t="s">
+      <c r="G122" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="H110" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="5:8">
-      <c r="E111" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F111" s="67" t="s">
+      <c r="H122" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8">
+      <c r="E123" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G111" s="68" t="s">
+      <c r="G123" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="H111" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="112" spans="5:8">
-      <c r="E112" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F112" s="67" t="s">
+      <c r="H123" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8">
+      <c r="E124" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G112" s="68" t="s">
+      <c r="G124" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="H112" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8">
-      <c r="E113" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="67" t="s">
+      <c r="H124" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8">
+      <c r="E125" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G113" s="68" t="s">
+      <c r="G125" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="H113" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8">
-      <c r="E114" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F114" s="69" t="s">
+      <c r="H125" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="5:8">
+      <c r="E126" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F126" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G114" s="68" t="s">
+      <c r="G126" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="H114" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="5:8">
-      <c r="E115" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="69" t="s">
+      <c r="H126" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="5:8">
+      <c r="E127" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G115" s="68" t="s">
+      <c r="G127" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="H115" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8">
-      <c r="E116" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F116" s="69" t="s">
+      <c r="H127" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8">
+      <c r="E128" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G116" s="68" t="s">
+      <c r="G128" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="H116" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8">
-      <c r="E117" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F117" s="69" t="s">
+      <c r="H128" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="5:8">
+      <c r="E129" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G117" s="68" t="s">
+      <c r="G129" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="H117" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8">
-      <c r="E118" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F118" s="69" t="s">
+      <c r="H129" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8">
+      <c r="E130" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="G118" s="68" t="s">
+      <c r="G130" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="H118" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="5:8">
-      <c r="E119" s="44"/>
-    </row>
-    <row r="120" spans="5:8">
-      <c r="E120" s="44"/>
-    </row>
-    <row r="121" spans="5:8">
-      <c r="E121" s="44"/>
-    </row>
-    <row r="122" spans="5:8">
-      <c r="E122" s="44"/>
+      <c r="H130" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8">
+      <c r="E131" s="44"/>
+    </row>
+    <row r="132" spans="5:8">
+      <c r="E132" s="44"/>
+    </row>
+    <row r="133" spans="5:8">
+      <c r="E133" s="44"/>
+    </row>
+    <row r="134" spans="5:8">
+      <c r="E134" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
